--- a/biology/Botanique/Illiciaceae/Illiciaceae.xlsx
+++ b/biology/Botanique/Illiciaceae/Illiciaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Illiciacées est une famille de plantes angiospermes primitives qui comprend 42 espèces appartenant au genre Illicium.
 Ce sont des petits arbres ou des arbustes, producteurs d'huiles essentielles, à feuilles persistantes, des régions subtropicales à tropicales. On les rencontre en Asie du Sud-Est, en Amérique du Nord et aux Antilles.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Illicium, du latin illicio, « séduire ; charmer », qui a donné illexi, parfum, probablement du fait du parfum et du gout anisés des graines de badianier.
 </t>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] situe ces plantes parmi les angiospermes de divergence ancienne. Depuis sa révision en 2003, cette famille est devenue optionnelle, incluse dans la famille des Schisandracées.
-En classification phylogénétique APG III (2009)[2] cette famille est invalide et ce genre est incorporé dans la famille Schisandraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) situe ces plantes parmi les angiospermes de divergence ancienne. Depuis sa révision en 2003, cette famille est devenue optionnelle, incluse dans la famille des Schisandracées.
+En classification phylogénétique APG III (2009) cette famille est invalide et ce genre est incorporé dans la famille Schisandraceae.
 </t>
         </is>
       </c>
